--- a/LETVONREPSFB建立呼叫连接的信令过程.xlsx
+++ b/LETVONREPSFB建立呼叫连接的信令过程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11220" windowHeight="5880" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LTE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
   <si>
     <t>信令</t>
   </si>
@@ -223,24 +223,76 @@
 NR/Paging</t>
   </si>
   <si>
+    <t>NR/Paging
+IMS_SIP_INVITE/Request
+NR/Service request</t>
+  </si>
+  <si>
+    <t>NR/RRCSetupRequest</t>
+  </si>
+  <si>
+    <t>NR/RRCSetup</t>
+  </si>
+  <si>
     <t>NR MSG4</t>
   </si>
   <si>
+    <t>NR/RRCSetupComplete</t>
+  </si>
+  <si>
     <t>NR MSG5</t>
   </si>
   <si>
+    <t>NR/MeasurementReport</t>
+  </si>
+  <si>
     <t>NR A2 MR</t>
   </si>
   <si>
+    <t>IMS_SIP_INVITE/Request
+NR/Paging
+NR/RRCReconfiguration
+NR/RRCReconfigurationComplete
+IMS_SIP_INVITE/Trying</t>
+  </si>
+  <si>
     <t>Mo Call Attempt</t>
   </si>
   <si>
+    <t>NR/RRCRelease
+LTE/SIBType1
+LTE/SIBType1
+LTE/SIBType1
+LTE/SIBType1
+LTE/SIBs(sib2,sib3)
+LTE/SIBs(sib5)
+LTE/SIBs(sib7)
+LTE/SIBs(sib24)</t>
+  </si>
+  <si>
     <t>MO EPS FB Request</t>
   </si>
   <si>
     <t>LTE TAU Request</t>
   </si>
   <si>
+    <t>LTE/RRCConnectionRequest
+LTE/RRCConnectionSetup
+LTE/RRCConnectionSetupComplete
+LTE/UE Capablility Enquiry
+LTE/UE Capablility Information
+LTE/SIBType1
+LTE/UE Capablility Enquiry
+LTE/UE Capablility Information
+LTE/Paging
+LTE/UE Capablility Enquiry
+LTE/UE Capablility Information
+LTE/Security Mode Command
+LTE/SecurityModeComplete
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete</t>
+  </si>
+  <si>
     <t>LTE MSG1</t>
   </si>
   <si>
@@ -253,37 +305,102 @@
     <t>LTE MSG4</t>
   </si>
   <si>
+    <t>LTE/TAU Accept
+LTE/TAU Complete</t>
+  </si>
+  <si>
     <t>LTE TAU Complete</t>
   </si>
   <si>
+    <t>LTE/UL Information Transfer
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/MeasurementReport
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/ActivateDedicatedEPSBearerContextRequest
+LTE/ActivateDedicatedEPSBearerContextAccept
+LTE/UL Information Transfer
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/MeasurementReport
+LTE/MeasurementReport</t>
+  </si>
+  <si>
     <t>LTE A2 MR</t>
   </si>
   <si>
+    <t>LTE/MeasurementReport</t>
+  </si>
+  <si>
+    <t>IMS_SIP_INVITE/Ringing</t>
+  </si>
+  <si>
     <t>MO Call Setup</t>
   </si>
   <si>
+    <t>IMS_SIP_UPDATE</t>
+  </si>
+  <si>
     <t>MO EFS FB Success</t>
   </si>
   <si>
+    <t>IMS_SIP_INVITE/Ringing
+IMS_SIP_UPDATE
+IMS_SIP_INVITE/OK
+IMS_SIP_ACK
+LTE/Paging
+LTE/Paging
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete</t>
+  </si>
+  <si>
+    <t>LTE/Paging
+LTE/MeasurementReport
+LTE/Paging
+LTE/Paging
+LTE/Paging
+LTE/MeasurementReport
+LTE/Paging
+LTE/Paging
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/Paging
+LTE/Paging
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/Paging
+LTE/MeasurementReport
+LTE/Paging
+LTE/Paging
+IMS_SIP_BYE/Request
+LTE/Paging
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/DeactivateEPSBearerContextRequest
+LTE/DeactivateEPSBearerContextAccept
+LTE/UL Information Transfer
+LTE/RRCConnectionReconfiguration
+LTE/RRCConnectionReconfigurationComplete
+LTE/MeasurementReport</t>
+  </si>
+  <si>
+    <t>IMS_SIP_BYE/OK</t>
+  </si>
+  <si>
     <t>Mo Call End</t>
-  </si>
-  <si>
-    <t>MO EPS FB Success</t>
-  </si>
-  <si>
-    <t>LTE B1 MR</t>
-  </si>
-  <si>
-    <t>Fast Return L-&gt;NR Request</t>
-  </si>
-  <si>
-    <t>NR Registration Request</t>
-  </si>
-  <si>
-    <t>NR Registration Accept</t>
-  </si>
-  <si>
-    <t>Fast Return L-&gt;NR Success</t>
   </si>
 </sst>
 </file>
@@ -943,23 +1060,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,9 +1414,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="53.3636363636364" style="10" customWidth="1"/>
-    <col min="2" max="2" width="39.4545454545455" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="10"/>
+    <col min="1" max="1" width="53.3636363636364" style="7" customWidth="1"/>
+    <col min="2" max="2" width="39.4545454545455" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1397,182 +1514,182 @@
       </c>
     </row>
     <row r="2" ht="150" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="360" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="75" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" ht="30" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" ht="45" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="30" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" ht="165" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1587,297 +1704,315 @@
   <sheetPr/>
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="28.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="48.6363636363636" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.8181818181818" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="2" ht="45" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="15" ht="75" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="16" ht="135" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="225" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" ht="375" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" ht="120" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="28" ht="409.5" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>50</v>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>12</v>
-      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
+      <c r="B51" s="7"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
+      <c r="B52" s="7"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
+      <c r="B53" s="7"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>36</v>
-      </c>
+      <c r="B55" s="7"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>37</v>
-      </c>
+      <c r="B56" s="7"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
+      <c r="B58" s="7"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>23</v>
-      </c>
+      <c r="B59" s="7"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>24</v>
-      </c>
+      <c r="B60" s="7"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>26</v>
-      </c>
+      <c r="B61" s="7"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
+      <c r="B62" s="7"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
+      <c r="B63" s="7"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>27</v>
-      </c>
+      <c r="B64" s="7"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>27</v>
-      </c>
+      <c r="B65" s="7"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>27</v>
-      </c>
+      <c r="B66" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
